--- a/Imposto de Renda.xlsx
+++ b/Imposto de Renda.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe.local\Videos\ARQUIVOS\materiais complementares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0000 - EXCEL COM AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAAEF47-9270-4B0B-BE48-7708BB04AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="630" windowWidth="20730" windowHeight="11760" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{21AF5686-43DE-436F-830C-EAB08FC5D1D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" tabRatio="0"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="NOTAS" sheetId="3" r:id="rId3"/>
     <sheet name="TABELAS" sheetId="5" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>NOME</t>
   </si>
@@ -89,27 +88,6 @@
     <t>preencha os dados da sua pessoa física abaixo</t>
   </si>
   <si>
-    <t>SIM</t>
-  </si>
-  <si>
-    <t>NÃO</t>
-  </si>
-  <si>
-    <t>FELIPE SKYWALKER NOBUNAGA</t>
-  </si>
-  <si>
-    <t>felipe@dio.me</t>
-  </si>
-  <si>
-    <t>Rua Dos limoeiros. R, - Nº 180</t>
-  </si>
-  <si>
-    <t>Rua Dos limoeiros. Ruan, - Nº 180</t>
-  </si>
-  <si>
-    <t>Mia Goth</t>
-  </si>
-  <si>
     <t>2. INFORMES DE RENDIMENTOS BANCÁRIOS</t>
   </si>
   <si>
@@ -278,9 +256,6 @@
     <t>82 - Banco Topázio</t>
   </si>
   <si>
-    <t>topazao_2025.pdf</t>
-  </si>
-  <si>
     <t>1º Banco</t>
   </si>
   <si>
@@ -309,25 +284,22 @@
   </si>
   <si>
     <t>ENTRADAS</t>
-  </si>
-  <si>
-    <t>HOLERITE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="170" formatCode="00000\-000"/>
-    <numFmt numFmtId="173" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="174" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="175" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="176" formatCode="mmmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="mmmm\-yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,13 +508,60 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="175" fontId="12" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -551,58 +570,11 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hiperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Neutro" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutra" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Título 1" xfId="2" builtinId="16"/>
   </cellStyles>
@@ -617,7 +589,22 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -633,24 +620,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="175" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -666,7 +635,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -686,7 +654,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Segoe UI"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -731,7 +698,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="Lion - Free animals icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD8D9D3-F1CA-3459-C50A-90F0A3A1EAD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD8D9D3-F1CA-3459-C50A-90F0A3A1EAD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +759,7 @@
         <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C2C3EA-085C-F020-84D8-0026696D0654}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24C2C3EA-085C-F020-84D8-0026696D0654}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -880,7 +847,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79351F7-13D4-5A33-CB65-402E00F58E5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E79351F7-13D4-5A33-CB65-402E00F58E5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,7 +935,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245403D9-DE27-427A-93B5-78EE711D4186}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{245403D9-DE27-427A-93B5-78EE711D4186}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1041,7 +1008,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D883CE-981C-401B-A072-1C79F4A136B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D883CE-981C-401B-A072-1C79F4A136B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1080,7 @@
         <xdr:cNvPr id="10" name="Retângulo 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4634C42A-66E9-E217-12B8-31E082776CA0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4634C42A-66E9-E217-12B8-31E082776CA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1190,7 +1157,7 @@
         <xdr:cNvPr id="14" name="Conector reto 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C6E0BC-9747-1A34-0A4F-198DE978D730}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05C6E0BC-9747-1A34-0A4F-198DE978D730}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,10 +1211,9 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="icon_link" descr="Linkedin White Icons – Free Download SVG, PNG, GIF">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6784B9-D666-409A-BFD6-E16848F1E60C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B6784B9-D666-409A-BFD6-E16848F1E60C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1222,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1309,7 +1275,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EF9DEB-3227-37D7-C35D-332CB65F3F99}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EF9DEB-3227-37D7-C35D-332CB65F3F99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1346,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="Lion - Free animals icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0250D619-642E-4E17-AA9A-811FCB215409}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0250D619-642E-4E17-AA9A-811FCB215409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1441,7 +1407,7 @@
         <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4A9973-12D4-4891-A507-8F3029B54826}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4A9973-12D4-4891-A507-8F3029B54826}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1495,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49303B44-6E1C-4E4F-A9D1-998BEFE36EFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49303B44-6E1C-4E4F-A9D1-998BEFE36EFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1568,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D14F494-6BA9-4CA2-9B0E-F6CBFB6599B8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D14F494-6BA9-4CA2-9B0E-F6CBFB6599B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1656,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B57576F-76C0-4541-BE88-35F550961079}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B57576F-76C0-4541-BE88-35F550961079}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1762,7 +1728,7 @@
         <xdr:cNvPr id="7" name="Retângulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628B5FFA-6B10-4B28-9335-4E2122034D41}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{628B5FFA-6B10-4B28-9335-4E2122034D41}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1805,7 @@
         <xdr:cNvPr id="8" name="Conector reto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF8B0CF-555E-4B61-9BE9-8109C2084B07}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF8B0CF-555E-4B61-9BE9-8109C2084B07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,10 +1859,9 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="18" name="icon_link" descr="Linkedin White Icons – Free Download SVG, PNG, GIF">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4206E5E7-4968-4CF8-A71C-26C4B64A84C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4206E5E7-4968-4CF8-A71C-26C4B64A84C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1905,7 +1870,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1958,7 +1923,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD11261-5E83-441E-AB9F-D538A63DE6AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD11261-5E83-441E-AB9F-D538A63DE6AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2025,7 +1990,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD43458-18B0-4252-B55B-38944FE43C3E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD43458-18B0-4252-B55B-38944FE43C3E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2057,7 @@
         <xdr:cNvPr id="2" name="Imagem 1" descr="Lion - Free animals icons">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5359CEEC-6425-444B-AA39-FC4DDA9A5505}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5359CEEC-6425-444B-AA39-FC4DDA9A5505}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2153,7 +2118,7 @@
         <xdr:cNvPr id="3" name="Retângulo 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3A21E-3032-4A44-9A60-D7C9B249346E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA3A21E-3032-4A44-9A60-D7C9B249346E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2241,7 +2206,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD2B5D3-B723-404C-ADB3-C51DD695393A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD2B5D3-B723-404C-ADB3-C51DD695393A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2279,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF203E7C-34D8-49FD-B29A-DFE85896E352}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF203E7C-34D8-49FD-B29A-DFE85896E352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2387,7 +2352,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D80966C-6F53-4FFA-B737-02CE4D679B17}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D80966C-6F53-4FFA-B737-02CE4D679B17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2474,7 +2439,7 @@
         <xdr:cNvPr id="7" name="Retângulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992BA612-9853-4261-82C6-85FAB2FC725E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992BA612-9853-4261-82C6-85FAB2FC725E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2516,7 @@
         <xdr:cNvPr id="8" name="Conector reto 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F9F98-4AB8-43B6-8DD3-7BC5B0B3DD1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D60F9F98-4AB8-43B6-8DD3-7BC5B0B3DD1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2605,10 +2570,9 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="16" name="icon_link" descr="Linkedin White Icons – Free Download SVG, PNG, GIF">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFA697F-D9BA-407E-A7E0-E9563EFB10B7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFA697F-D9BA-407E-A7E0-E9563EFB10B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2581,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2670,7 +2634,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BB0D9D-0466-483B-A009-4909D8CCF700}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78BB0D9D-0466-483B-A009-4909D8CCF700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2718,12 +2682,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D0452CD4-D09D-4472-816A-A53383470A2F}" name="Tabela1" displayName="Tabela1" ref="C8:E35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
-  <autoFilter ref="C8:E35" xr:uid="{D0452CD4-D09D-4472-816A-A53383470A2F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="C8:E35" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="C8:E35"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D31EA280-7853-409C-A8EE-1C6F5F94A34F}" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F34F7F55-794C-46B5-A546-FE1070EE20E7}" name="CATEGORIA" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9B7F950C-CEE2-4840-870F-46DA94161C69}" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="1" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3045,146 +3009,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9303864E-0BD8-454D-8027-66A57F4679B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A3:E19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.26953125" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:5" ht="20.25" thickBot="1">
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="3:5" ht="21.95" customHeight="1" thickTop="1">
+      <c r="C4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="6" spans="3:5" ht="16.5">
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="3:5" ht="16.5">
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14">
-        <v>12312312398</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="3:5" ht="16.5">
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="15">
-        <v>34605</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="3:5" ht="16.5">
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="13">
-        <v>31713388</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="3:5" ht="16.5">
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="3:5" ht="16.5">
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="3:5" ht="16.5">
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="3:5" ht="16.5">
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="16">
-        <v>987654321</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="3:5" ht="16.5">
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="17">
-        <v>1131713388</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="3:5" ht="16.5">
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18">
-        <v>11931713388</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="3:5" ht="16.5">
       <c r="C16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D16" s="15"/>
+    </row>
+    <row r="17" spans="3:4" ht="16.5">
       <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="3:4" ht="16.5">
       <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="3:4" ht="16.5">
       <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>17</v>
-      </c>
+      <c r="D19" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3192,146 +3128,125 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D19" xr:uid="{54951301-173D-4AFD-B67C-17F1DCDBCF36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D19">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" xr:uid="{B4297533-4A9D-4B59-BA33-0DC570DF76D1}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A33EFF-B3E5-42DF-A97E-515E80C1ADCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A3:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.26953125" customWidth="1"/>
-    <col min="4" max="4" width="43.26953125" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:5" ht="20.25" thickBot="1">
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="6" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C6" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="20.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="9">
+    <row r="4" spans="3:5" ht="21.95" customHeight="1" thickTop="1">
+      <c r="C4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="6" spans="3:5" ht="16.5">
+      <c r="C6" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="20.45" customHeight="1">
+      <c r="C7" s="21">
         <f>SUM(D11,D16,D21)</f>
-        <v>58377777</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C9" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="16.5">
       <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="3:5" ht="16.5">
       <c r="C11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="20">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="3:5" ht="16.5">
       <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C14" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="16.5">
       <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="3:5" ht="16.5">
       <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="20">
-        <v>1312312</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="3:4" ht="16.5">
       <c r="C17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="16.5">
       <c r="C20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="3:4" ht="16.5">
       <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="20">
-        <v>56565465</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" ht="16.5" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="3:4" ht="16.5">
       <c r="C22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>79</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D22" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3344,7 +3259,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Banco não encontrado" error="Informe um banco da lista" promptTitle="Informe um banco" prompt="Informe um banco vinculado ao seu cpf" xr:uid="{8E8F4148-0197-4DB2-A72A-B1A764002E4A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Banco não encontrado" error="Informe um banco da lista" promptTitle="Informe um banco" prompt="Informe um banco vinculado ao seu cpf">
           <x14:formula1>
             <xm:f>TABELAS!$A$2:$A$51</xm:f>
           </x14:formula1>
@@ -3357,192 +3272,186 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3BA299-F02A-401D-8ABB-9A137D2C9703}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A3:E35"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29.90625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="29.875" style="1" customWidth="1"/>
+    <col min="3" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="3:5" ht="20.25" thickBot="1">
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="3:5" ht="22" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="7" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C7" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="3:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="C8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C9" s="21">
-        <v>45775</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="23">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="23"/>
-    </row>
-    <row r="12" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23"/>
-    </row>
-    <row r="14" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-    </row>
-    <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-    </row>
-    <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23"/>
-    </row>
-    <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="23"/>
-    </row>
-    <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23"/>
-    </row>
-    <row r="32" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23"/>
-    </row>
-    <row r="33" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="23"/>
-    </row>
-    <row r="34" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="23"/>
-    </row>
-    <row r="35" spans="3:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+    <row r="4" spans="3:5" ht="21.95" customHeight="1" thickTop="1">
+      <c r="C4" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="7" spans="3:5" ht="16.5">
+      <c r="C7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+    </row>
+    <row r="8" spans="3:5" ht="15">
+      <c r="C8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="16.5">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="3:5" ht="16.5">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="3:5" ht="16.5">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="3:5" ht="16.5">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="3:5" ht="16.5">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="3:5" ht="16.5">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="3:5" ht="16.5">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="3:5" ht="16.5">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="3:5" ht="16.5">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="3:5" ht="16.5">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="3:5" ht="16.5">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="3:5" ht="16.5">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="3:5" ht="16.5">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="3:5" ht="16.5">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="3:5" ht="16.5">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="3:5" ht="16.5">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+    </row>
+    <row r="25" spans="3:5" ht="16.5">
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="3:5" ht="16.5">
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+    </row>
+    <row r="27" spans="3:5" ht="16.5">
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+    </row>
+    <row r="28" spans="3:5" ht="16.5">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+    </row>
+    <row r="29" spans="3:5" ht="16.5">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+    </row>
+    <row r="30" spans="3:5" ht="16.5">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="3:5" ht="16.5">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+    </row>
+    <row r="32" spans="3:5" ht="16.5">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+    </row>
+    <row r="33" spans="3:5" ht="16.5">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="3:5" ht="16.5">
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="3:5" ht="16.5">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3551,7 +3460,7 @@
     <mergeCell ref="C7:E7"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D35" xr:uid="{96D22A78-575E-4C00-9B15-6A8EAE1F45C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D35">
       <formula1>"HOLERITE,CNPJ,FREELANCE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3564,269 +3473,269 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19C13C1-36A7-4840-8281-BDE1E2320123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A39" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4110,13 +4019,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5034FB2-15CF-4029-B390-CB3D697747A6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5034FB2-15CF-4029-B390-CB3D697747A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF3645A-183E-4B6C-A5C9-282D00B11F18}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BEF3645A-183E-4B6C-A5C9-282D00B11F18}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC18804-D22A-466B-B8D8-D5406EDAC826}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDC18804-D22A-466B-B8D8-D5406EDAC826}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="851b35d3-0456-4d6a-bc2f-da927e91d158"/>
+    <ds:schemaRef ds:uri="19483571-f922-4e8e-9c1c-26f0a2252132"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>